--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codeing\AAMS\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864B2492-8D45-4E60-89A8-46FB171894B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C60E440-1081-4521-AADE-758355806DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,20 +195,20 @@
     <t>هيثم محمد أحمد أبوكردوغة</t>
   </si>
   <si>
-    <t>iset@gmail.com</t>
-  </si>
-  <si>
     <t>913438102</t>
   </si>
   <si>
     <t>9134381022</t>
+  </si>
+  <si>
+    <t>dsfs@www.quranmausem.ly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +218,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -268,10 +276,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -288,11 +297,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -392,37 +436,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="right" vertical="center"/>
       <border>
         <left style="thin">
@@ -457,14 +470,14 @@
   <autoFilter ref="A1:E51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="موسى بشير الشبلي" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="iset@gmail.com" dataDxfId="3">
-      <calculatedColumnFormula>LOWER(CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;"@gmail.com")</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="dsfs@www.quranmausem.ly" dataDxfId="0">
+      <calculatedColumnFormula>LOWER(CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;"@www.quranmausem.ly")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="913438102" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="9134381022" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="913438102" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="9134381022" dataDxfId="2">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Student" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Student" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -730,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -747,14 +760,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -765,14 +778,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B33" ca="1" si="0">LOWER(CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;"@gmail.com")</f>
-        <v>ejvm@gmail.com</v>
+        <f ca="1">LOWER(CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;"@www.quranmausem.ly")</f>
+        <v>dbrb@www.quranmausem.ly</v>
       </c>
       <c r="C2" s="2">
         <v>925225861</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D33" si="1">C2</f>
+        <f t="shared" ref="D2:D33" si="0">C2</f>
         <v>925225861</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -784,14 +797,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>xuxy@gmail.com</v>
+        <f t="shared" ref="B2:B33" ca="1" si="1">LOWER(CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;"@www.quranmausem.ly")</f>
+        <v>dkei@www.quranmausem.ly</v>
       </c>
       <c r="C3" s="2">
         <v>925225861</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>925225861</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -803,14 +816,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cfzv@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>aamm@www.quranmausem.ly</v>
       </c>
       <c r="C4" s="2">
         <v>925225861</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>925225861</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -822,14 +835,14 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>whdq@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>mliv@www.quranmausem.ly</v>
       </c>
       <c r="C5" s="2">
         <v>925871307</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>925871307</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -841,14 +854,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ckhs@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>mghd@www.quranmausem.ly</v>
       </c>
       <c r="C6" s="2">
         <v>917458428</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>917458428</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -860,14 +873,14 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>kxuo@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>knkv@www.quranmausem.ly</v>
       </c>
       <c r="C7" s="2">
         <v>917458428</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>917458428</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -879,14 +892,14 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>hsro@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>hrri@www.quranmausem.ly</v>
       </c>
       <c r="C8" s="2">
         <v>926800029</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>926800029</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -898,14 +911,14 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>qeas@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>uhta@www.quranmausem.ly</v>
       </c>
       <c r="C9" s="2">
         <v>925026911</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>925026911</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -917,14 +930,14 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>btgv@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>fqbd@www.quranmausem.ly</v>
       </c>
       <c r="C10" s="2">
         <v>917406547</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>917406547</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -936,14 +949,14 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>rbjm@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>jach@www.quranmausem.ly</v>
       </c>
       <c r="C11" s="3">
         <v>925102510</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>925102510</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -955,14 +968,14 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>kumq@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>rlus@www.quranmausem.ly</v>
       </c>
       <c r="C12" s="2">
         <v>926643517</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>926643517</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -974,14 +987,14 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>sugt@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>gcxp@www.quranmausem.ly</v>
       </c>
       <c r="C13" s="2">
         <v>913901541</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>913901541</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -993,14 +1006,14 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>jfrb@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>woiz@www.quranmausem.ly</v>
       </c>
       <c r="C14" s="2">
         <v>928687855</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>928687855</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1012,14 +1025,14 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>vduu@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>nmgp@www.quranmausem.ly</v>
       </c>
       <c r="C15" s="2">
         <v>928687855</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>928687855</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1031,14 +1044,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>mvju@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>czdo@www.quranmausem.ly</v>
       </c>
       <c r="C16" s="2">
         <v>928687855</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>928687855</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1050,14 +1063,14 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>bbke@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>hamm@www.quranmausem.ly</v>
       </c>
       <c r="C17" s="2">
         <v>925102517</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>925102517</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1069,14 +1082,14 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>pgba@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>cmsb@www.quranmausem.ly</v>
       </c>
       <c r="C18" s="2">
         <v>925102517</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>925102517</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1088,14 +1101,14 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>zstk@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>ujvo@www.quranmausem.ly</v>
       </c>
       <c r="C19" s="2">
         <v>925026911</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>925026911</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1107,14 +1120,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>errb@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>cdyt@www.quranmausem.ly</v>
       </c>
       <c r="C20" s="2">
         <v>913217554</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>913217554</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1126,14 +1139,14 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>oxpc@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>fpod@www.quranmausem.ly</v>
       </c>
       <c r="C21" s="2">
         <v>910126123</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>910126123</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1145,14 +1158,14 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ouuk@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>uoqy@www.quranmausem.ly</v>
       </c>
       <c r="C22" s="2">
         <v>927267434</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>927267434</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1164,14 +1177,14 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>xlcy@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>hdlq@www.quranmausem.ly</v>
       </c>
       <c r="C23" s="2">
         <v>913745306</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>913745306</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1183,14 +1196,14 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>iwsm@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>ijmt@www.quranmausem.ly</v>
       </c>
       <c r="C24" s="2">
         <v>919272089</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>919272089</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1202,14 +1215,14 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>verr@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>hcaw@www.quranmausem.ly</v>
       </c>
       <c r="C25" s="2">
         <v>910946470</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>910946470</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -1221,14 +1234,14 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>erxf@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>qsfl@www.quranmausem.ly</v>
       </c>
       <c r="C26" s="2">
         <v>910946470</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>910946470</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1240,14 +1253,14 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>lwps@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>sfdk@www.quranmausem.ly</v>
       </c>
       <c r="C27" s="2">
         <v>914495975</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>914495975</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1259,14 +1272,14 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>gvbe@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>niyv@www.quranmausem.ly</v>
       </c>
       <c r="C28" s="2">
         <v>914495975</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>914495975</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1278,14 +1291,14 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>mntb@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>etld@www.quranmausem.ly</v>
       </c>
       <c r="C29" s="2">
         <v>945495852</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>945495852</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1297,14 +1310,14 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>wuqm@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>iaft@www.quranmausem.ly</v>
       </c>
       <c r="C30" s="2">
         <v>911388410</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>911388410</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1316,14 +1329,14 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>jpxe@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>clhs@www.quranmausem.ly</v>
       </c>
       <c r="C31" s="2">
         <v>913496162</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>913496162</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1335,14 +1348,14 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>tvuu@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>nzjo@www.quranmausem.ly</v>
       </c>
       <c r="C32" s="2">
         <v>913496162</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>913496162</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1354,14 +1367,14 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cqrd@gmail.com</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>qngr@www.quranmausem.ly</v>
       </c>
       <c r="C33" s="2">
         <v>913726392</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>913726392</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1373,8 +1386,8 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f t="shared" ref="B34:B51" ca="1" si="2">LOWER(CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;"@gmail.com")</f>
-        <v>atxd@gmail.com</v>
+        <f t="shared" ref="B34:B51" ca="1" si="2">LOWER(CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;"@www.quranmausem.ly")</f>
+        <v>qypz@www.quranmausem.ly</v>
       </c>
       <c r="C34" s="2">
         <v>913726392</v>
@@ -1393,7 +1406,7 @@
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>lfla@gmail.com</v>
+        <v>ejqd@www.quranmausem.ly</v>
       </c>
       <c r="C35" s="2">
         <v>913726392</v>
@@ -1412,7 +1425,7 @@
       </c>
       <c r="B36" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ukfe@gmail.com</v>
+        <v>ufyi@www.quranmausem.ly</v>
       </c>
       <c r="C36" s="2">
         <v>918010747</v>
@@ -1431,7 +1444,7 @@
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>htly@gmail.com</v>
+        <v>fruv@www.quranmausem.ly</v>
       </c>
       <c r="C37" s="2">
         <v>913752884</v>
@@ -1450,7 +1463,7 @@
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>nkjx@gmail.com</v>
+        <v>ctfa@www.quranmausem.ly</v>
       </c>
       <c r="C38" s="2">
         <v>913752884</v>
@@ -1469,7 +1482,7 @@
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ewsa@gmail.com</v>
+        <v>vkqa@www.quranmausem.ly</v>
       </c>
       <c r="C39" s="2">
         <v>910271184</v>
@@ -1488,7 +1501,7 @@
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>xjwc@gmail.com</v>
+        <v>ctgd@www.quranmausem.ly</v>
       </c>
       <c r="C40" s="2">
         <v>925307219</v>
@@ -1507,7 +1520,7 @@
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ciws@gmail.com</v>
+        <v>yojl@www.quranmausem.ly</v>
       </c>
       <c r="C41" s="2">
         <v>916159301</v>
@@ -1526,7 +1539,7 @@
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ldns@gmail.com</v>
+        <v>lnmj@www.quranmausem.ly</v>
       </c>
       <c r="C42" s="2">
         <v>914271017</v>
@@ -1545,7 +1558,7 @@
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>bvoe@gmail.com</v>
+        <v>yqhd@www.quranmausem.ly</v>
       </c>
       <c r="C43" s="2">
         <v>925012908</v>
@@ -1564,7 +1577,7 @@
       </c>
       <c r="B44" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>upjz@gmail.com</v>
+        <v>himq@www.quranmausem.ly</v>
       </c>
       <c r="C44" s="2">
         <v>918723534</v>
@@ -1583,7 +1596,7 @@
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>ldjb@gmail.com</v>
+        <v>tarn@www.quranmausem.ly</v>
       </c>
       <c r="C45" s="2">
         <v>911201266</v>
@@ -1602,7 +1615,7 @@
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>tjhh@gmail.com</v>
+        <v>nwqe@www.quranmausem.ly</v>
       </c>
       <c r="C46" s="2">
         <v>913824015</v>
@@ -1621,7 +1634,7 @@
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>dxzj@gmail.com</v>
+        <v>dffx@www.quranmausem.ly</v>
       </c>
       <c r="C47" s="2">
         <v>926498007</v>
@@ -1640,7 +1653,7 @@
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>vvvn@gmail.com</v>
+        <v>nawg@www.quranmausem.ly</v>
       </c>
       <c r="C48" s="2">
         <v>927255127</v>
@@ -1659,7 +1672,7 @@
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>kcwj@gmail.com</v>
+        <v>pgrr@www.quranmausem.ly</v>
       </c>
       <c r="C49" s="5">
         <v>927255127</v>
@@ -1678,7 +1691,7 @@
       </c>
       <c r="B50" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>kjpl@gmail.com</v>
+        <v>koym@www.quranmausem.ly</v>
       </c>
       <c r="C50" s="2">
         <v>918288770</v>
@@ -1697,7 +1710,7 @@
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>turt@gmail.com</v>
+        <v>ujpz@www.quranmausem.ly</v>
       </c>
       <c r="C51" s="5">
         <v>914684221</v>
@@ -1711,9 +1724,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{B1ADD715-8ED1-48D9-B992-4F39CEBE6425}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496063" right="0.15748031496063" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="14" max="8" man="1"/>
     <brk id="27" max="8" man="1"/>
@@ -1721,7 +1737,7 @@
     <brk id="70" max="8" man="1"/>
   </rowBreaks>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>